--- a/biology/Zoologie/Galecyon/Galecyon.xlsx
+++ b/biology/Zoologie/Galecyon/Galecyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galecyon est un genre éteint de mammifères de la famille des Hyaenodontidae. Ces espèces, endémiques de l'Amérique du Nord, ont vécu lors de l'Éocène.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon (en) Paleobiology Database                   (20 juillet 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon (en) Paleobiology Database                   (20 juillet 2019) :
 Galecyon chronius Zack, 2011
 Galecyon gallus Solé et al., 2013
 Galecyon mordax  Matthew &amp; Granger, 1915 - espèce type
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Galecyon, de gale dérivé du grec ancien γαλῆ, galê, « putois » (polecat en anglais), et cyon du grec ancien κύων, kuon, « chien », a été choisi en référence au lieu de découverte à l'ouest de la Polecat Bench Formation (en)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Galecyon, de gale dérivé du grec ancien γαλῆ, galê, « putois » (polecat en anglais), et cyon du grec ancien κύων, kuon, « chien », a été choisi en référence au lieu de découverte à l'ouest de la Polecat Bench Formation (en).
 </t>
         </is>
       </c>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +621,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) (en) Philip D. Gingerich et Harvey A. Deutsch, « Systematics and Evolution of Early Eocene Hyaenodontidae (Mammalia, Creodonta) in the Clarks Fork Basin, Wyoming », Contributions from the Museum of Paleontology, Ann Arbor, vol. 27, no 13,‎ 30 novembre 1989, p. 327-391 (ISSN 0097-3556, lire en ligne)</t>
         </is>
